--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -127,12 +127,21 @@
     <t>登录交换机查看配置</t>
   </si>
   <si>
+    <t>网络的划分及隔离。各网络的安全配置措施。</t>
+  </si>
+  <si>
     <t>测试网络</t>
   </si>
   <si>
     <t>生产网络</t>
   </si>
   <si>
+    <t>云VPC</t>
+  </si>
+  <si>
+    <t>接口获取</t>
+  </si>
+  <si>
     <t>DMZ</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>其他云服务</t>
   </si>
   <si>
+    <t>队列（mq,zookerper）</t>
+  </si>
+  <si>
     <t>安全技术</t>
   </si>
   <si>
@@ -253,7 +265,7 @@
     <t>扫描发现，操作审计</t>
   </si>
   <si>
-    <t>网络划分，网络接入、域控、ADAP等</t>
+    <t>网络划分，网络接入、域控、AD域等。云VPC设置检查</t>
   </si>
   <si>
     <t>短信炸弹测试</t>
@@ -268,7 +280,7 @@
     <t>安全基线</t>
   </si>
   <si>
-    <t>HIDS</t>
+    <t>HIDS，检查安全基线</t>
   </si>
   <si>
     <t>WAF</t>
@@ -361,7 +373,7 @@
     <t>操作记录审计</t>
   </si>
   <si>
-    <t>ACL审计</t>
+    <t>ACL审计，云VPC规则审计，流量审计</t>
   </si>
   <si>
     <t>逐步实现自动化</t>
@@ -1039,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,9 +1071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1424,7 +1433,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1526,41 +1535,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1581,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1583,7 +1592,7 @@
     <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="28.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="18.3636363636364" customWidth="1"/>
   </cols>
@@ -1666,7 +1675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1676,10 +1685,13 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1687,10 +1699,11 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1698,71 +1711,91 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>42</v>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1798,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1809,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1817,7 +1850,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1830,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1838,10 +1871,10 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1849,47 +1882,47 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1904,10 +1937,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1923,13 +1956,13 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1940,10 +1973,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,10 +1998,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1976,10 +2009,10 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1987,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1998,32 +2031,32 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2031,59 +2064,70 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2139,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2116,13 +2160,13 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -2133,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -2141,7 +2185,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
@@ -2149,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="42" spans="1:4">
@@ -2157,7 +2201,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="28" spans="1:4">
@@ -2165,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -2173,12 +2217,12 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2196,60 +2240,61 @@
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="28" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="28" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="28" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="28" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" spans="4:4">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+    <row r="17" customFormat="1" spans="4:4">
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:5">
-      <c r="B20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:5">
       <c r="B21" s="6"/>
@@ -2286,17 +2331,22 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" s="1" customFormat="1" spans="2:5">
       <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30"/>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2309,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2326,13 +2376,13 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -2343,10 +2393,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -2354,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
@@ -2362,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
@@ -2370,7 +2420,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -2378,62 +2428,62 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="28" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -2441,36 +2491,36 @@
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="1" ht="17" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="17" spans="4:4">
-      <c r="D16" s="8" t="s">
-        <v>92</v>
+      <c r="D16" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="17" spans="4:4">
-      <c r="D17" s="8" t="s">
-        <v>93</v>
+      <c r="D17" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="17" spans="4:4">
-      <c r="D18" s="8" t="s">
-        <v>94</v>
+      <c r="D18" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="17" spans="4:4">
-      <c r="D19" s="8" t="s">
-        <v>95</v>
+      <c r="D19" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:4">
@@ -2487,7 +2537,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6"/>
@@ -2530,7 +2580,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="1"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2569,13 +2619,13 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -2586,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -2594,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="28" spans="1:4">
@@ -2602,7 +2652,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" spans="1:4">
@@ -2610,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -2618,7 +2668,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -2626,66 +2676,66 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="1" ht="28" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2748,8 +2798,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2767,13 +2817,13 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -2784,10 +2834,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -2795,7 +2845,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="28" spans="1:4">
@@ -2803,7 +2853,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" spans="1:4">
@@ -2811,7 +2861,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -2819,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -2830,56 +2880,56 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2924,35 +2974,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>安全配置</t>
-  </si>
-  <si>
-    <t>jump批量对基线进行检查</t>
-  </si>
-  <si>
-    <t>安全扫描</t>
-  </si>
-  <si>
-    <t>主机端口。</t>
   </si>
   <si>
     <t>报废清算</t>
@@ -1430,13 +1421,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
@@ -1496,27 +1487,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="42" spans="4:5">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1542,34 +1517,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1558,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1599,194 +1574,194 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5"/>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1822,107 +1797,107 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1915,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1953,181 +1928,181 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2117,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2157,128 +2132,128 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="67" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="42" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="28" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="28" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="28" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="28" spans="1:4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2360,7 +2335,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2373,117 +2348,117 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="28" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -2491,36 +2466,36 @@
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="1" ht="17" spans="1:4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="17" spans="4:4">
       <c r="D16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="17" spans="4:4">
       <c r="D17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="17" spans="4:4">
       <c r="D18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="17" spans="4:4">
       <c r="D19" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:4">
@@ -2601,8 +2576,8 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2616,126 +2591,126 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="42" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="28" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="1" ht="28" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2799,7 +2774,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2814,122 +2789,122 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="28" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2974,35 +2949,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2576,7 +2576,7 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>应急响应</t>
+  </si>
+  <si>
+    <t>整个公司的it基础设施的安全架构</t>
   </si>
   <si>
     <t>关联项</t>
@@ -1517,34 +1520,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1561,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2939,13 +2942,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -2978,6 +2981,11 @@
     <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -2945,7 +2945,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
+++ b/2.原创-基础安全/2.基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="8"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -1430,10 +1430,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="21.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="19.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1512,11 +1512,15 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1565,14 +1569,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="17.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="28.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="18.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.0925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="26.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="17.7314814814815" customWidth="1"/>
+    <col min="5" max="5" width="28.6388888888889" customWidth="1"/>
+    <col min="6" max="6" width="18.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -1789,13 +1793,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="10.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="10.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="13.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -1921,12 +1925,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="24.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="30.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="18.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="19.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="24.3611111111111" customWidth="1"/>
+    <col min="3" max="3" width="30.8148148148148" customWidth="1"/>
+    <col min="4" max="4" width="18.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2123,13 +2127,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5462962962963" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.2685185185185" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2174,7 +2178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="42" spans="1:4">
+    <row r="5" customFormat="1" ht="43.2" spans="1:4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="28" spans="1:4">
+    <row r="6" customFormat="1" ht="28.8" spans="1:4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="28" spans="1:4">
+    <row r="13" customFormat="1" ht="28.8" spans="1:4">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="28" spans="1:4">
+    <row r="14" customFormat="1" ht="28.8" spans="1:4">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="28" spans="1:4">
+    <row r="15" customFormat="1" ht="28.8" spans="1:4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2341,12 +2345,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
-    <col min="4" max="4" width="23.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="23.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2418,7 +2422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="28" spans="1:4">
+    <row r="8" customFormat="1" ht="28.8" spans="1:4">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2477,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="17" spans="1:4">
+    <row r="15" customFormat="1" ht="16.8" spans="1:4">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2481,22 +2485,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="17" spans="4:4">
+    <row r="16" customFormat="1" ht="16.8" spans="4:4">
       <c r="D16" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="17" spans="4:4">
+    <row r="17" customFormat="1" ht="16.8" spans="4:4">
       <c r="D17" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="17" spans="4:4">
+    <row r="18" customFormat="1" ht="16.8" spans="4:4">
       <c r="D18" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="17" spans="4:4">
+    <row r="19" customFormat="1" ht="16.8" spans="4:4">
       <c r="D19" s="7" t="s">
         <v>96</v>
       </c>
@@ -2583,13 +2587,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
-    <col min="5" max="5" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="11.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2609,7 +2613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="42" spans="1:4">
+    <row r="2" customFormat="1" ht="43.2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="28" spans="1:4">
+    <row r="4" customFormat="1" ht="28.8" spans="1:4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="28" spans="1:4">
+    <row r="5" customFormat="1" ht="28.8" spans="1:4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2703,7 +2707,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="28" spans="1:4">
+    <row r="14" customFormat="1" ht="28.8" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2780,13 +2784,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8181818181818" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8148148148148" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7314814814815" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2826,7 +2830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="28" spans="1:4">
+    <row r="4" customFormat="1" ht="28.8" spans="1:4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="28" spans="1:4">
+    <row r="5" customFormat="1" ht="28.8" spans="1:4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2944,11 +2948,11 @@
   <sheetPr/>
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
